--- a/TeX/P_related_coeffs.xlsx
+++ b/TeX/P_related_coeffs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>was in OMEN</t>
   </si>
@@ -32,13 +32,16 @@
     <t>Rate constant for P sorption (deep sea) ks</t>
   </si>
   <si>
+    <t>k0 in Palastanga is 0.019</t>
+  </si>
+  <si>
     <t>Rate constant for Fe-bound P release, km</t>
   </si>
   <si>
     <t>Until   0.24</t>
   </si>
   <si>
-    <t>k m is approximated as a background value (0.05 a −1 ) plus a rate dependent on the anaerobic degradation rate of POC, i.e. k m = 0.05 + k 0 (G 2 Cax /G C G Cax ) </t>
+    <t>k m is approximated as a background value (0.05 a −1 ) plus a rate dependent on the anaerobic degradation rate of POC, i.e. k m = 0.05 + k 0 (G 2 Cax /G C G Cax )</t>
   </si>
   <si>
     <t>Rate constant for authigenic Ca‐P precipitation, ka</t>
@@ -71,7 +74,7 @@
     <t>flux of M to the sediment</t>
   </si>
   <si>
-    <t>from Slomp et al. 1996 </t>
+    <t>from Slomp et al. 1996</t>
   </si>
   <si>
     <t>Fe-P in put (from Palastanga et al. 2011):</t>
@@ -108,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,12 +133,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -142,6 +148,7 @@
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,7 +302,7 @@
   <dimension ref="B3:F24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -351,10 +358,13 @@
       <c r="D6" s="3" t="n">
         <v>3.65</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">0.0000022*24*365</f>
@@ -365,15 +375,15 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>10</v>
@@ -385,18 +395,18 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1E-009</v>
@@ -411,7 +421,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>1E-009</v>
@@ -426,7 +436,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>1.99E-009</v>
@@ -441,7 +451,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>1.99E-009</v>
@@ -456,7 +466,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>3.7E-009</v>
@@ -471,12 +481,12 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">365*0.00000000002</f>
@@ -485,40 +495,40 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/TeX/P_related_coeffs.xlsx
+++ b/TeX/P_related_coeffs.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+  <si>
+    <t>Slomp et al. 1996</t>
+  </si>
   <si>
     <t>was in OMEN</t>
   </si>
@@ -96,6 +99,21 @@
   </si>
   <si>
     <t>[Ruttenberg, 1993].</t>
+  </si>
+  <si>
+    <t>Gypens et al. 2008</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Rate constant for P sorption, ks</t>
+  </si>
+  <si>
+    <t>no values given</t>
   </si>
 </sst>
 </file>
@@ -106,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,6 +167,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,8 +216,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,7 +245,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,17 +334,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F24"/>
+  <dimension ref="B3:G36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3571428571429"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8571428571429"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3418367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
@@ -319,216 +354,328 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">0.26*365</f>
+        <v>94.9</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>36.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">0.26*365</f>
+        <v>94.9</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>3.65</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>5</v>
+      <c r="G6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">5.3*10^{-4}*365</f>
+        <v>0.19345</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <f aca="false">0.0000022*24*365</f>
         <v>0.019272</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <f aca="false">0.05</f>
         <v>0.05</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="C8" s="0" t="n">
+        <f aca="false">1*10^{-3}*365</f>
+        <v>0.365</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="n">
         <v>1E-009</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="8" t="n">
+        <v>1E-009</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>2E-006</v>
       </c>
-      <c r="E10" s="6" t="n">
-        <f aca="false">D10/1000</f>
+      <c r="F10" s="8" t="n">
+        <f aca="false">E10/1000</f>
         <v>2E-009</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="n">
         <v>1E-009</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="6" t="n">
         <v>1.2E-005</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <f aca="false">D11/1000</f>
+      <c r="F11" s="8" t="n">
+        <f aca="false">E11/1000</f>
         <v>1.2E-008</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="n">
         <v>1.99E-009</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="8" t="n">
+        <v>1.99E-009</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <f aca="false">D12/1000</f>
+      <c r="F12" s="8" t="n">
+        <f aca="false">E12/1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="n">
         <v>1.99E-009</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="6" t="n">
         <v>2E-006</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <f aca="false">D13/1000</f>
+      <c r="F13" s="8" t="n">
+        <f aca="false">E13/1000</f>
         <v>2E-009</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="n">
         <v>3.7E-009</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="8" t="n">
+        <v>3.7E-009</v>
+      </c>
+      <c r="E15" s="6" t="n">
         <v>3.7E-006</v>
       </c>
-      <c r="E15" s="6" t="n">
-        <f aca="false">D15/1000</f>
+      <c r="F15" s="8" t="n">
+        <f aca="false">E15/1000</f>
         <v>3.7E-009</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2" t="s">
-        <v>17</v>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <f aca="false">365*0.00000000002</f>
         <v>7.3E-009</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="F18" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="0" t="s">
-        <v>21</v>
+      <c r="F19" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="0" t="s">
-        <v>22</v>
+      <c r="F20" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="0" t="s">
-        <v>23</v>
+      <c r="F21" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="0" t="s">
-        <v>24</v>
+      <c r="F22" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="s">
-        <v>25</v>
+      <c r="F23" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="0" t="s">
-        <v>26</v>
+      <c r="F24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">+0.005*24*365</f>
+        <v>43.8</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">+0.1*24*365</f>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <f aca="false">1.8*10^{-6}*24*365</f>
+        <v>0.015768</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">2.2*10^{-6}*24*365</f>
+        <v>0.019272</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">1*10^{-6}*24*365</f>
+        <v>0.00876</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">5*10^{-4}*24*365</f>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
